--- a/Database.xlsx
+++ b/Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\MyProjectDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A600EB-847F-4FAE-95C7-7F2D9E78E7DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7516043E-ED51-433C-8A2C-2B513C311B13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18900" windowHeight="11055" xr2:uid="{D72BD8C0-841F-4536-941C-8227BFDA98F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D72BD8C0-841F-4536-941C-8227BFDA98F4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
   <si>
     <t>member</t>
   </si>
@@ -103,117 +103,159 @@
     <t>project_enddate</t>
   </si>
   <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>list_serno</t>
+  </si>
+  <si>
+    <t>list_serno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERIAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>work_serno</t>
+  </si>
+  <si>
+    <t>work_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_principal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>second_Principal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectlist</t>
+  </si>
+  <si>
+    <t>projectlist_serno</t>
+  </si>
+  <si>
+    <t>listwork</t>
+  </si>
+  <si>
+    <t>listwork_serno</t>
+  </si>
+  <si>
+    <t>teammember</t>
+  </si>
+  <si>
+    <t>teammember_serno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isadmin</t>
+  </si>
+  <si>
+    <t>adminpush</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminpush_serno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminpush_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminpush_startdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminpush_enddate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>projecthint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>projecthint_serno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>project_hint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>workhint_serno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_serno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_hint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>workhint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERIAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>list_serno</t>
-  </si>
-  <si>
-    <t>list_serno</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_hint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SERIAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>work_serno</t>
-  </si>
-  <si>
-    <t>work_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deadline</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>first_principal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>second_Principal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_hint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hint</t>
-  </si>
-  <si>
-    <t>hint_serno</t>
-  </si>
-  <si>
-    <t>project_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hint_content</t>
-  </si>
-  <si>
-    <t>hint_startdate</t>
-  </si>
-  <si>
-    <t>hint_enddate</t>
-  </si>
-  <si>
-    <t>projectlist</t>
-  </si>
-  <si>
-    <t>projectlist_serno</t>
-  </si>
-  <si>
-    <t>listwork</t>
-  </si>
-  <si>
-    <t>listwork_serno</t>
-  </si>
-  <si>
-    <t>teammember</t>
-  </si>
-  <si>
-    <t>teammember_serno</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isadmin</t>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -344,35 +386,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,387 +730,446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9773C36F-23E6-499C-A961-94F7FCFDFA66}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="11"/>
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="6" t="s">
+      <c r="B11" s="11"/>
+      <c r="D11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="G11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="D11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="G11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="G15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="5" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="5" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="4" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="4" t="s">
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D19" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="6" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="D23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="G23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="D23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="G23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="8" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="D30" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="B32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G36" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="G23:H23"/>
